--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -912,10 +924,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -959,28 +971,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1005,28 +1017,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1549,10 +1561,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1596,28 +1608,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1642,28 +1654,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2099,10 +2111,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2146,28 +2158,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2192,28 +2204,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2591,10 +2603,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="J85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2638,28 +2650,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2684,28 +2696,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2880,10 +2892,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2927,28 +2939,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2973,28 +2985,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3140,10 +3152,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="J104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3187,28 +3199,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3233,28 +3245,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3400,10 +3412,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="J113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3447,28 +3459,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3493,28 +3505,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3689,10 +3701,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3736,28 +3748,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3782,28 +3794,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3920,10 +3932,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="J131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3967,28 +3979,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4013,28 +4025,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4209,10 +4221,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
+      <c r="J141" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4256,28 +4268,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4302,28 +4314,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4527,10 +4539,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
+      <c r="J152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4574,28 +4586,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4620,28 +4632,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4787,10 +4799,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
+      <c r="J161" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
